--- a/working_dbh_burial_copy_from_odk.xlsx
+++ b/working_dbh_burial_copy_from_odk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgarber\Jup\PhD_jup\GIS_scripts_dendro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F843EC01-67F3-4216-825B-045F1FBD0513}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64F121-E875-4A78-A050-6221FAC9D931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="1297">
   <si>
     <t>list name</t>
   </si>
@@ -3911,6 +3911,21 @@
   </si>
   <si>
     <t>Mary</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>gravel</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>loamy sand</t>
+  </si>
+  <si>
+    <t>sand loam</t>
   </si>
 </sst>
 </file>
@@ -4304,13 +4319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="O179" workbookViewId="0">
+      <selection activeCell="R224" sqref="R224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -4401,7 +4416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75">
+    <row r="2" spans="1:25" ht="15.75" hidden="1">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -4464,7 +4479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75">
+    <row r="3" spans="1:25" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -4569,15 +4584,23 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>1249</v>
+      </c>
       <c r="S4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="U4" s="1" t="s">
         <v>69</v>
       </c>
@@ -4588,7 +4611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75">
+    <row r="5" spans="1:25" ht="15.75" hidden="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4693,7 +4716,7 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1" t="s">
-        <v>54</v>
+        <v>1292</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -4712,7 +4735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75">
+    <row r="7" spans="1:25" ht="15.75" hidden="1">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -4823,11 +4846,17 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="S8" s="1" t="s">
         <v>54</v>
       </c>
@@ -4842,7 +4871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75">
+    <row r="9" spans="1:25" ht="15.75" hidden="1">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -4909,7 +4938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75">
+    <row r="10" spans="1:25" ht="15.75" hidden="1">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -5018,11 +5047,17 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="S11" s="1" t="s">
         <v>113</v>
       </c>
@@ -5037,7 +5072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75">
+    <row r="12" spans="1:25" ht="15.75" hidden="1">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -5100,7 +5135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75">
+    <row r="13" spans="1:25" ht="15.75" hidden="1">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -5167,7 +5202,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75">
+    <row r="14" spans="1:25" ht="15.75" hidden="1">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -5230,7 +5265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75">
+    <row r="15" spans="1:25" ht="15.75" hidden="1">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -5297,7 +5332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75">
+    <row r="16" spans="1:25" ht="15.75" hidden="1">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -5364,7 +5399,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75">
+    <row r="17" spans="1:25" ht="15.75" hidden="1">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -5427,7 +5462,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75">
+    <row r="18" spans="1:25" ht="15.75" hidden="1">
       <c r="A18" s="1">
         <v>23</v>
       </c>
@@ -5490,7 +5525,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75">
+    <row r="19" spans="1:25" ht="15.75" hidden="1">
       <c r="A19" s="1">
         <v>24</v>
       </c>
@@ -5564,7 +5599,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>1294</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>161</v>
@@ -5601,7 +5636,7 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1" t="s">
-        <v>54</v>
+        <v>1292</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5620,7 +5655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75">
+    <row r="21" spans="1:25" ht="15.75" hidden="1">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -5687,7 +5722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75">
+    <row r="22" spans="1:25" ht="15.75" hidden="1">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -5754,7 +5789,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75">
+    <row r="23" spans="1:25" ht="15.75" hidden="1">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -5859,11 +5894,17 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="S24" s="1" t="s">
         <v>54</v>
       </c>
@@ -5878,7 +5919,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75">
+    <row r="25" spans="1:25" ht="15.75" hidden="1">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -5945,7 +5986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75">
+    <row r="26" spans="1:25" ht="15.75" hidden="1">
       <c r="A26" s="1">
         <v>33</v>
       </c>
@@ -6008,7 +6049,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75">
+    <row r="27" spans="1:25" ht="15.75" hidden="1">
       <c r="A27" s="1">
         <v>34</v>
       </c>
@@ -6071,7 +6112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75">
+    <row r="28" spans="1:25" ht="15.75" hidden="1">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -6134,7 +6175,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75">
+    <row r="29" spans="1:25" ht="15.75" hidden="1">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -6199,7 +6240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75">
+    <row r="30" spans="1:25" ht="15.75" hidden="1">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -6262,7 +6303,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75">
+    <row r="31" spans="1:25" ht="15.75" hidden="1">
       <c r="A31" s="1">
         <v>39</v>
       </c>
@@ -6329,7 +6370,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75">
+    <row r="32" spans="1:25" ht="15.75" hidden="1">
       <c r="A32" s="1">
         <v>40</v>
       </c>
@@ -6396,7 +6437,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75">
+    <row r="33" spans="1:25" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>41</v>
       </c>
@@ -6459,7 +6500,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75">
+    <row r="34" spans="1:25" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>41</v>
       </c>
@@ -6522,7 +6563,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75">
+    <row r="35" spans="1:25" ht="15.75" hidden="1">
       <c r="A35" s="1">
         <v>42</v>
       </c>
@@ -6585,7 +6626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75">
+    <row r="36" spans="1:25" ht="15.75" hidden="1">
       <c r="A36" s="1">
         <v>43</v>
       </c>
@@ -6690,11 +6731,17 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>1295</v>
+      </c>
       <c r="S37" s="1" t="s">
         <v>54</v>
       </c>
@@ -6709,7 +6756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75">
+    <row r="38" spans="1:25" ht="15.75" hidden="1">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -6772,7 +6819,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75">
+    <row r="39" spans="1:25" ht="15.75" hidden="1">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -6835,7 +6882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15.75">
+    <row r="40" spans="1:25" ht="15.75" hidden="1">
       <c r="A40" s="1">
         <v>47</v>
       </c>
@@ -6898,7 +6945,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15.75">
+    <row r="41" spans="1:25" ht="15.75" hidden="1">
       <c r="A41" s="1">
         <v>48</v>
       </c>
@@ -6961,7 +7008,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15.75">
+    <row r="42" spans="1:25" ht="15.75" hidden="1">
       <c r="A42" s="1">
         <v>49</v>
       </c>
@@ -7024,7 +7071,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15.75">
+    <row r="43" spans="1:25" ht="15.75" hidden="1">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -7091,7 +7138,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15.75">
+    <row r="44" spans="1:25" ht="15.75" hidden="1">
       <c r="A44" s="1">
         <v>52</v>
       </c>
@@ -7154,7 +7201,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15.75">
+    <row r="45" spans="1:25" ht="15.75" hidden="1">
       <c r="A45" s="1">
         <v>54</v>
       </c>
@@ -7217,7 +7264,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15.75">
+    <row r="46" spans="1:25" ht="15.75" hidden="1">
       <c r="A46" s="1">
         <v>55</v>
       </c>
@@ -7280,7 +7327,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75">
+    <row r="47" spans="1:25" ht="15.75" hidden="1">
       <c r="A47" s="1">
         <v>57</v>
       </c>
@@ -7345,7 +7392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15.75">
+    <row r="48" spans="1:25" ht="15.75" hidden="1">
       <c r="A48" s="1">
         <v>58</v>
       </c>
@@ -7477,7 +7524,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="15.75">
+    <row r="50" spans="1:25" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>59</v>
       </c>
@@ -7609,7 +7656,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="15.75">
+    <row r="52" spans="1:25" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>60</v>
       </c>
@@ -7676,7 +7723,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15.75">
+    <row r="53" spans="1:25" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>61</v>
       </c>
@@ -7739,7 +7786,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15.75">
+    <row r="54" spans="1:25" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>62</v>
       </c>
@@ -7848,7 +7895,7 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1" t="s">
-        <v>54</v>
+        <v>1239</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -7928,7 +7975,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="15.75">
+    <row r="57" spans="1:25" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>63</v>
       </c>
@@ -8056,7 +8103,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="15.75">
+    <row r="59" spans="1:25" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>64</v>
       </c>
@@ -8119,7 +8166,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15.75">
+    <row r="60" spans="1:25" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>65</v>
       </c>
@@ -8185,7 +8232,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="15.75">
+    <row r="61" spans="1:25" ht="15.75" hidden="1">
       <c r="A61" s="1">
         <v>66</v>
       </c>
@@ -8248,7 +8295,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="15.75">
+    <row r="62" spans="1:25" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>67</v>
       </c>
@@ -8311,7 +8358,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="15.75">
+    <row r="63" spans="1:25" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>68</v>
       </c>
@@ -8374,7 +8421,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="15.75">
+    <row r="64" spans="1:25" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>68</v>
       </c>
@@ -8437,7 +8484,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75">
+    <row r="65" spans="1:25" ht="15.75" hidden="1">
       <c r="A65" s="1">
         <v>69</v>
       </c>
@@ -8500,7 +8547,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="15.75">
+    <row r="66" spans="1:25" ht="15.75" hidden="1">
       <c r="A66" s="1">
         <v>70</v>
       </c>
@@ -8608,14 +8655,20 @@
         <v>54</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>1293</v>
+      </c>
       <c r="S67" s="1" t="s">
-        <v>54</v>
+        <v>1267</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="1" t="s">
@@ -8628,7 +8681,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="15.75">
+    <row r="68" spans="1:25" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>72</v>
       </c>
@@ -8669,14 +8722,11 @@
         <v>54</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="1" t="s">
-        <v>1239</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="2" t="s">
         <v>1247</v>
       </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
       <c r="S68" s="1" t="s">
         <v>422</v>
       </c>
@@ -8691,7 +8741,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15.75">
+    <row r="69" spans="1:25" ht="15.75" hidden="1">
       <c r="A69" s="1">
         <v>73</v>
       </c>
@@ -8732,14 +8782,11 @@
         <v>54</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="1" t="s">
-        <v>1239</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
       <c r="S69" s="1" t="s">
         <v>427</v>
       </c>
@@ -8754,7 +8801,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="15.75">
+    <row r="70" spans="1:25" ht="15.75" hidden="1">
       <c r="A70" s="1">
         <v>74</v>
       </c>
@@ -8795,14 +8842,11 @@
         <v>54</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="1" t="s">
-        <v>1239</v>
-      </c>
+      <c r="O70" s="2"/>
       <c r="P70" s="2" t="s">
         <v>1260</v>
       </c>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
       <c r="S70" s="1" t="s">
         <v>432</v>
       </c>
@@ -8817,7 +8861,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15.75">
+    <row r="71" spans="1:25" ht="15.75" hidden="1">
       <c r="A71" s="1">
         <v>75</v>
       </c>
@@ -8858,14 +8902,11 @@
         <v>54</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" s="1" t="s">
-        <v>1239</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" s="2" t="s">
         <v>1258</v>
       </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
       <c r="S71" s="1" t="s">
         <v>438</v>
       </c>
@@ -8921,14 +8962,20 @@
         <v>54</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1293</v>
+      </c>
       <c r="S72" s="1" t="s">
-        <v>54</v>
+        <v>1267</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="1" t="s">
@@ -8982,14 +9029,20 @@
         <v>54</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="1" t="s">
-        <v>54</v>
+      <c r="O73" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1293</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="1" t="s">
@@ -9002,7 +9055,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15.75">
+    <row r="74" spans="1:25" ht="15.75" hidden="1">
       <c r="A74" s="1">
         <v>78</v>
       </c>
@@ -9065,7 +9118,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15.75">
+    <row r="75" spans="1:25" ht="15.75" hidden="1">
       <c r="A75" s="1">
         <v>79</v>
       </c>
@@ -9128,7 +9181,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15.75">
+    <row r="76" spans="1:25" ht="15.75" hidden="1">
       <c r="A76" s="1">
         <v>79</v>
       </c>
@@ -9191,7 +9244,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15.75">
+    <row r="77" spans="1:25" ht="15.75" hidden="1">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -9258,7 +9311,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15.75">
+    <row r="78" spans="1:25" ht="15.75" hidden="1">
       <c r="A78" s="1">
         <v>81</v>
       </c>
@@ -9325,7 +9378,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15.75">
+    <row r="79" spans="1:25" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>82</v>
       </c>
@@ -9392,7 +9445,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75">
+    <row r="80" spans="1:25" ht="15.75" hidden="1">
       <c r="A80" s="1">
         <v>83</v>
       </c>
@@ -9455,7 +9508,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="15.75">
+    <row r="81" spans="1:25" ht="15.75" hidden="1">
       <c r="A81" s="1">
         <v>85</v>
       </c>
@@ -9518,7 +9571,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="15.75">
+    <row r="82" spans="1:25" ht="15.75" hidden="1">
       <c r="A82" s="1">
         <v>86</v>
       </c>
@@ -9692,11 +9745,17 @@
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>1275</v>
+      </c>
       <c r="S84" s="1" t="s">
         <v>54</v>
       </c>
@@ -9711,7 +9770,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="15.75">
+    <row r="85" spans="1:25" ht="15.75" hidden="1">
       <c r="A85" s="1">
         <v>89</v>
       </c>
@@ -9778,7 +9837,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="15.75">
+    <row r="86" spans="1:25" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>77</v>
       </c>
@@ -9841,7 +9900,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="15.75">
+    <row r="87" spans="1:25" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -9908,7 +9967,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="15.75">
+    <row r="88" spans="1:25" ht="15.75" hidden="1">
       <c r="A88" s="1">
         <v>91</v>
       </c>
@@ -9975,7 +10034,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="15.75">
+    <row r="89" spans="1:25" ht="15.75" hidden="1">
       <c r="A89" s="1">
         <v>92</v>
       </c>
@@ -10040,7 +10099,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="15.75">
+    <row r="90" spans="1:25" ht="15.75" hidden="1">
       <c r="A90" s="1">
         <v>93</v>
       </c>
@@ -10103,7 +10162,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="15.75">
+    <row r="91" spans="1:25" ht="15.75" hidden="1">
       <c r="A91" s="1">
         <v>94</v>
       </c>
@@ -10170,7 +10229,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="15.75">
+    <row r="92" spans="1:25" ht="15.75" hidden="1">
       <c r="A92" s="1">
         <v>96</v>
       </c>
@@ -10237,7 +10296,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="15.75">
+    <row r="93" spans="1:25" ht="15.75" hidden="1">
       <c r="A93" s="1">
         <v>97</v>
       </c>
@@ -10304,7 +10363,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="15.75">
+    <row r="94" spans="1:25" ht="15.75" hidden="1">
       <c r="A94" s="1">
         <v>98</v>
       </c>
@@ -10367,7 +10426,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="15.75">
+    <row r="95" spans="1:25" ht="15.75" hidden="1">
       <c r="A95" s="1">
         <v>99</v>
       </c>
@@ -10430,7 +10489,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="15.75">
+    <row r="96" spans="1:25" ht="15.75" hidden="1">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -10497,7 +10556,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="15.75">
+    <row r="97" spans="1:25" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>101</v>
       </c>
@@ -10602,11 +10661,17 @@
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>1275</v>
+      </c>
       <c r="S98" s="1" t="s">
         <v>54</v>
       </c>
@@ -10789,11 +10854,17 @@
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>1256</v>
+      </c>
       <c r="S101" s="1" t="s">
         <v>598</v>
       </c>
@@ -10808,7 +10879,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="15.75">
+    <row r="102" spans="1:25" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -10875,7 +10946,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="15.75">
+    <row r="103" spans="1:25" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -10938,7 +11009,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="15.75">
+    <row r="104" spans="1:25" ht="15.75" hidden="1">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -11001,7 +11072,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="15.75">
+    <row r="105" spans="1:25" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -11068,7 +11139,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="15.75">
+    <row r="106" spans="1:25" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -11135,7 +11206,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="15.75">
+    <row r="107" spans="1:25" ht="15.75" hidden="1">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -11259,7 +11330,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="15.75">
+    <row r="109" spans="1:25" ht="15.75" hidden="1">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -11322,7 +11393,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="15.75">
+    <row r="110" spans="1:25" ht="15.75" hidden="1">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -11385,7 +11456,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="15.75">
+    <row r="111" spans="1:25" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -11452,7 +11523,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="15.75">
+    <row r="112" spans="1:25" ht="15.75" hidden="1">
       <c r="A112" s="1">
         <v>118</v>
       </c>
@@ -11519,7 +11590,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="15.75">
+    <row r="113" spans="1:25" ht="15.75" hidden="1">
       <c r="A113" s="1">
         <v>119</v>
       </c>
@@ -11586,7 +11657,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="15.75">
+    <row r="114" spans="1:25" ht="15.75" hidden="1">
       <c r="A114" s="1">
         <v>120</v>
       </c>
@@ -11649,7 +11720,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="15.75">
+    <row r="115" spans="1:25" ht="15.75" hidden="1">
       <c r="A115" s="1">
         <v>121</v>
       </c>
@@ -11785,7 +11856,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="15.75">
+    <row r="117" spans="1:25" ht="15.75" hidden="1">
       <c r="A117" s="1">
         <v>123</v>
       </c>
@@ -11855,7 +11926,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="15.75">
+    <row r="118" spans="1:25" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>125</v>
       </c>
@@ -11918,7 +11989,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="15.75">
+    <row r="119" spans="1:25" ht="15.75" hidden="1">
       <c r="A119" s="1">
         <v>126</v>
       </c>
@@ -12027,11 +12098,17 @@
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>1275</v>
+      </c>
       <c r="S120" s="1" t="s">
         <v>54</v>
       </c>
@@ -12046,7 +12123,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="15.75">
+    <row r="121" spans="1:25" ht="15.75" hidden="1">
       <c r="A121" s="1">
         <v>128</v>
       </c>
@@ -12109,7 +12186,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="15.75">
+    <row r="122" spans="1:25" ht="15.75" hidden="1">
       <c r="A122" s="1">
         <v>129</v>
       </c>
@@ -12176,7 +12253,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="15.75">
+    <row r="123" spans="1:25" ht="15.75" hidden="1">
       <c r="A123" s="1">
         <v>131</v>
       </c>
@@ -12308,7 +12385,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="15.75">
+    <row r="125" spans="1:25" ht="15.75" hidden="1">
       <c r="A125" s="1">
         <v>134</v>
       </c>
@@ -12436,7 +12513,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="15.75">
+    <row r="127" spans="1:25" ht="15.75" hidden="1">
       <c r="A127" s="1">
         <v>136</v>
       </c>
@@ -12503,7 +12580,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="15.75">
+    <row r="128" spans="1:25" ht="15.75" hidden="1">
       <c r="A128" s="1">
         <v>137</v>
       </c>
@@ -12566,7 +12643,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="15.75">
+    <row r="129" spans="1:25" ht="15.75" hidden="1">
       <c r="A129" s="1">
         <v>138</v>
       </c>
@@ -12629,7 +12706,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="15.75">
+    <row r="130" spans="1:25" ht="15.75" hidden="1">
       <c r="A130" s="1">
         <v>138</v>
       </c>
@@ -12692,7 +12769,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="15.75">
+    <row r="131" spans="1:25" ht="15.75" hidden="1">
       <c r="A131" s="1">
         <v>139</v>
       </c>
@@ -12803,7 +12880,7 @@
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="1" t="s">
-        <v>54</v>
+        <v>1239</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
@@ -12822,7 +12899,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="15.75">
+    <row r="133" spans="1:25" ht="15.75" hidden="1">
       <c r="A133" s="1">
         <v>141</v>
       </c>
@@ -12889,7 +12966,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="15.75">
+    <row r="134" spans="1:25" ht="15.75" hidden="1">
       <c r="A134" s="1">
         <v>142</v>
       </c>
@@ -12952,7 +13029,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="15.75">
+    <row r="135" spans="1:25" ht="15.75" hidden="1">
       <c r="A135" s="1">
         <v>143</v>
       </c>
@@ -13019,7 +13096,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="15.75">
+    <row r="136" spans="1:25" ht="15.75" hidden="1">
       <c r="A136" s="1">
         <v>144</v>
       </c>
@@ -13086,7 +13163,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="15.75">
+    <row r="137" spans="1:25" ht="15.75" hidden="1">
       <c r="A137" s="1">
         <v>145</v>
       </c>
@@ -13149,7 +13226,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="15.75">
+    <row r="138" spans="1:25" ht="15.75" hidden="1">
       <c r="A138" s="1">
         <v>146</v>
       </c>
@@ -13218,7 +13295,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="15.75">
+    <row r="139" spans="1:25" ht="15.75" hidden="1">
       <c r="A139" s="1">
         <v>147</v>
       </c>
@@ -13285,7 +13362,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="15.75">
+    <row r="140" spans="1:25" ht="15.75" hidden="1">
       <c r="A140" s="1">
         <v>148</v>
       </c>
@@ -13348,7 +13425,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="15.75">
+    <row r="141" spans="1:25" ht="15.75" hidden="1">
       <c r="A141" s="1">
         <v>149</v>
       </c>
@@ -13411,7 +13488,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="15.75">
+    <row r="142" spans="1:25" ht="15.75" hidden="1">
       <c r="A142" s="1">
         <v>150</v>
       </c>
@@ -13539,7 +13616,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="15.75">
+    <row r="144" spans="1:25" ht="15.75" hidden="1">
       <c r="A144" s="1" t="s">
         <v>819</v>
       </c>
@@ -13666,7 +13743,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="15.75">
+    <row r="146" spans="1:25" ht="15.75" hidden="1">
       <c r="A146" s="1">
         <v>152</v>
       </c>
@@ -13729,7 +13806,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="15.75">
+    <row r="147" spans="1:25" ht="15.75" hidden="1">
       <c r="A147" s="1">
         <v>153</v>
       </c>
@@ -13796,7 +13873,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="15.75">
+    <row r="148" spans="1:25" ht="15.75" hidden="1">
       <c r="A148" s="1">
         <v>154</v>
       </c>
@@ -14103,7 +14180,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75">
+    <row r="153" spans="1:25" ht="15.75" hidden="1">
       <c r="A153" s="1">
         <v>159</v>
       </c>
@@ -15935,7 +16012,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="15.75">
+    <row r="183" spans="1:25" ht="15.75" hidden="1">
       <c r="A183" s="1">
         <v>135</v>
       </c>
@@ -16128,7 +16205,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="15.75">
+    <row r="186" spans="1:25" ht="15.75" hidden="1">
       <c r="A186" s="1">
         <v>140</v>
       </c>
@@ -16195,7 +16272,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="15.75">
+    <row r="187" spans="1:25" ht="15.75" hidden="1">
       <c r="A187" s="1">
         <v>143</v>
       </c>
@@ -16258,7 +16335,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="15.75">
+    <row r="188" spans="1:25" ht="15.75" hidden="1">
       <c r="A188" s="1">
         <v>144</v>
       </c>
@@ -16325,7 +16402,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="15.75">
+    <row r="189" spans="1:25" ht="15.75" hidden="1">
       <c r="A189" s="1">
         <v>145</v>
       </c>
@@ -16392,7 +16469,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="15.75">
+    <row r="190" spans="1:25" ht="15.75" hidden="1">
       <c r="A190" s="1">
         <v>148</v>
       </c>
@@ -16459,7 +16536,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="15.75">
+    <row r="191" spans="1:25" ht="15.75" hidden="1">
       <c r="A191" s="1">
         <v>149</v>
       </c>
@@ -16526,7 +16603,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="15.75">
+    <row r="192" spans="1:25" ht="15.75" hidden="1">
       <c r="A192" s="1">
         <v>150</v>
       </c>
@@ -16635,11 +16712,17 @@
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>1267</v>
+      </c>
       <c r="S193" s="1" t="s">
         <v>54</v>
       </c>
@@ -16719,7 +16802,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="15.75">
+    <row r="195" spans="1:25" ht="15.75" hidden="1">
       <c r="A195" s="1">
         <v>153</v>
       </c>
@@ -16786,7 +16869,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="15.75">
+    <row r="196" spans="1:25" ht="15.75" hidden="1">
       <c r="A196" s="1">
         <v>154</v>
       </c>
@@ -16914,7 +16997,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="15.75">
+    <row r="198" spans="1:25" ht="15.75" hidden="1">
       <c r="A198" s="1">
         <v>156</v>
       </c>
@@ -16985,7 +17068,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="15.75">
+    <row r="199" spans="1:25" ht="15.75" hidden="1">
       <c r="A199" s="1">
         <v>157</v>
       </c>
@@ -17056,7 +17139,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="15.75">
+    <row r="200" spans="1:25" ht="15.75" hidden="1">
       <c r="A200" s="1">
         <v>160</v>
       </c>
@@ -17119,7 +17202,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="15.75">
+    <row r="201" spans="1:25" ht="15.75" hidden="1">
       <c r="A201" s="1">
         <v>161</v>
       </c>
@@ -17182,7 +17265,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="15.75">
+    <row r="202" spans="1:25" ht="15.75" hidden="1">
       <c r="A202" s="1">
         <v>162</v>
       </c>
@@ -17310,7 +17393,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="15.75">
+    <row r="204" spans="1:25" ht="15.75" hidden="1">
       <c r="A204" s="1">
         <v>167</v>
       </c>
@@ -17377,7 +17460,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="15.75">
+    <row r="205" spans="1:25" ht="15.75" hidden="1">
       <c r="A205" s="1">
         <v>168</v>
       </c>
@@ -17444,7 +17527,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="15.75">
+    <row r="206" spans="1:25" ht="15.75" hidden="1">
       <c r="A206" s="1">
         <v>169</v>
       </c>
@@ -17637,7 +17720,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="15.75">
+    <row r="209" spans="1:25" ht="15.75" hidden="1">
       <c r="A209" s="1">
         <v>174</v>
       </c>
@@ -17956,7 +18039,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="15.75">
+    <row r="214" spans="1:25" ht="15.75" hidden="1">
       <c r="A214" s="1">
         <v>179</v>
       </c>
@@ -18088,7 +18171,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="15.75">
+    <row r="216" spans="1:25" ht="15.75" hidden="1">
       <c r="A216" s="1">
         <v>180</v>
       </c>
@@ -18151,7 +18234,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="15.75">
+    <row r="217" spans="1:25" ht="15.75" hidden="1">
       <c r="A217" s="1">
         <v>181</v>
       </c>
@@ -18218,7 +18301,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="15.75">
+    <row r="218" spans="1:25" ht="15.75" hidden="1">
       <c r="A218" s="1">
         <v>183</v>
       </c>
@@ -18281,7 +18364,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="15.75">
+    <row r="219" spans="1:25" ht="15.75" hidden="1">
       <c r="A219" s="1">
         <v>184</v>
       </c>
@@ -18413,7 +18496,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="15.75">
+    <row r="221" spans="1:25" ht="15.75" hidden="1">
       <c r="A221" s="1">
         <v>189</v>
       </c>
@@ -18480,7 +18563,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="15.75">
+    <row r="222" spans="1:25" ht="15.75" hidden="1">
       <c r="A222" s="1">
         <v>193</v>
       </c>
@@ -18543,7 +18626,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="15.75">
+    <row r="223" spans="1:25" ht="15.75" hidden="1">
       <c r="A223" s="1">
         <v>194</v>
       </c>
@@ -18648,11 +18731,17 @@
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P224" s="2"/>
-      <c r="Q224" s="2"/>
-      <c r="R224" s="2"/>
+        <v>1239</v>
+      </c>
+      <c r="P224" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q224" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R224" s="2" t="s">
+        <v>1296</v>
+      </c>
       <c r="S224" s="1" t="s">
         <v>1235</v>
       </c>
@@ -18668,7 +18757,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y224" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y224" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="14">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
